--- a/ResultadoEleicoesDistritos/AVEIRO_AROUCA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_AROUCA.xlsx
@@ -597,64 +597,64 @@
         <v>5901</v>
       </c>
       <c r="H2" t="n">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I2" t="n">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="J2" t="n">
-        <v>2509</v>
+        <v>2452</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="T2" t="n">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="V2" t="n">
-        <v>3740</v>
+        <v>3734</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3827</v>
+        <v>3726</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
